--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,114 +46,114 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -187,13 +187,19 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -571,7 +577,7 @@
         <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +659,13 @@
         <v>48</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7580645161290323</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K5">
-        <v>0.6666666666666666</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7135922330097088</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C7">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K7">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6891891891891891</v>
+        <v>0.6844660194174758</v>
       </c>
       <c r="C8">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="D8">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K8">
-        <v>0.4927536231884058</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6875</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>0.3729508196721312</v>
+        <v>0.3598360655737705</v>
       </c>
       <c r="L9">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="M9">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K10">
-        <v>0.351506456241033</v>
+        <v>0.3443328550932568</v>
       </c>
       <c r="L10">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M10">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6386554621848739</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K11">
-        <v>0.2717842323651452</v>
+        <v>0.2966804979253112</v>
       </c>
       <c r="L11">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M11">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6363636363636364</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K12">
-        <v>0.2469879518072289</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4939759036144578</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K13">
-        <v>0.2171253822629969</v>
+        <v>0.2324159021406728</v>
       </c>
       <c r="L13">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M13">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,37 +1185,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4840579710144928</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C14">
+        <v>178</v>
+      </c>
+      <c r="D14">
+        <v>178</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>167</v>
-      </c>
-      <c r="D14">
-        <v>167</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>178</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K14">
-        <v>0.201058201058201</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4803149606299212</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K15">
-        <v>0.1060473269062226</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1020</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,39 +1309,39 @@
         <v>61</v>
       </c>
       <c r="K16">
-        <v>0.04876462938881664</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="L16">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4421052631578947</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,21 +1353,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17">
+        <v>0.1035087719298246</v>
+      </c>
+      <c r="L17">
+        <v>118</v>
+      </c>
+      <c r="M17">
+        <v>119</v>
+      </c>
+      <c r="N17">
+        <v>0.99</v>
+      </c>
+      <c r="O17">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.40625</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1375,19 +1405,43 @@
       <c r="H18">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18">
+        <v>0.05386112913692408</v>
+      </c>
+      <c r="L18">
+        <v>83</v>
+      </c>
+      <c r="M18">
+        <v>83</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3932584269662922</v>
+        <v>0.3828125</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1399,15 +1453,15 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3459715639810427</v>
+        <v>0.3613861386138614</v>
       </c>
       <c r="C20">
         <v>73</v>
@@ -1425,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3267326732673267</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1451,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3265306122448979</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1477,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1506,18 +1560,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2577319587628866</v>
+        <v>0.2436708860759494</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1529,47 +1583,47 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.224368499257058</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C25">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2215189873417721</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C26">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1581,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2173913043478261</v>
+        <v>0.2102803738317757</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1607,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2088607594936709</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1633,47 +1687,47 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2038216560509554</v>
+        <v>0.2005943536404161</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2</v>
+        <v>0.1910828025477707</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1685,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1850220264317181</v>
+        <v>0.19</v>
       </c>
       <c r="C31">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1711,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1828571428571429</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1737,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1745,25 +1799,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1822429906542056</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C33">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>175</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1771,25 +1825,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1498559077809798</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>295</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1797,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1090225563909774</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1823,13 +1877,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.09859154929577464</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1849,25 +1903,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.09615384615384616</v>
+        <v>0.09598214285714286</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>329</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1875,25 +1929,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.09534883720930233</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F38">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>389</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1901,25 +1955,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08896210873146623</v>
+        <v>0.08192090395480225</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>553</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1927,25 +1981,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0738255033557047</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="F40">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1953,13 +2007,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04955527318932656</v>
+        <v>0.04441624365482234</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E41">
         <v>0.15</v>
@@ -1971,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
